--- a/biology/Botanique/Muscat-de-rivesaltes/Muscat-de-rivesaltes.xlsx
+++ b/biology/Botanique/Muscat-de-rivesaltes/Muscat-de-rivesaltes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le muscat de Rivesaltes est un vin doux naturel d'appellation d'origine contrôlée produit dans 89 communes du département français des Pyrénées-Orientales et 9 communes du département de l'Aude, en région Occitanie.
@@ -514,50 +526,54 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pape Benoît XIII (pape d'Avignon élu en 1394), de son vrai nom Pedro de Luna, originaire d’Aragon, est grand amateur de vin muscat de Claira, paroisse située sur le terroir de la future appellation Rivesaltes. 
-Révolte de 1907
-Les vendanges 1906 ont été désastreuses dans tout le Roussillon, ce qui n'empêche pas la chute des cours du vin. Des familles vigneronnes se heurtent à des difficultés financières telles, qu'elles ne peuvent plus payer l'impôt. Informé, le gouvernement donne ordre de faire intervenir les huissiers. Le village de Baixas est le premier à se révolter au début de l'année 1907[3].
-Le 18 février, il reçoit le soutien de Marcelin Albert, qui envoie un télégramme à Georges Clemenceau. Quant à Joseph Tarrius, viticulteur et pharmacien à Baixas, il fait parvenir au gouvernement une pétition signée des habitants du village. Il y est précisé que le seul impôt que les contribuables puissent encore payer est celui du sang. Alors que les défilés de protestations se sont multipliés dans les villes et villages, préfectures et sous-préfectures accueillent les manifestations viticoles. Le 19 mai, à Perpignan 170 à 200 000 personnes défilent dans la ville. La manifestation se déroule sans incidents graves[4],[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Muscat-de-rivesaltes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscat-de-rivesaltes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Révolte de 1907</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vendanges 1906 ont été désastreuses dans tout le Roussillon, ce qui n'empêche pas la chute des cours du vin. Des familles vigneronnes se heurtent à des difficultés financières telles, qu'elles ne peuvent plus payer l'impôt. Informé, le gouvernement donne ordre de faire intervenir les huissiers. Le village de Baixas est le premier à se révolter au début de l'année 1907.
+Le 18 février, il reçoit le soutien de Marcelin Albert, qui envoie un télégramme à Georges Clemenceau. Quant à Joseph Tarrius, viticulteur et pharmacien à Baixas, il fait parvenir au gouvernement une pétition signée des habitants du village. Il y est précisé que le seul impôt que les contribuables puissent encore payer est celui du sang. Alors que les défilés de protestations se sont multipliés dans les villes et villages, préfectures et sous-préfectures accueillent les manifestations viticoles. Le 19 mai, à Perpignan 170 à 200 000 personnes défilent dans la ville. La manifestation se déroule sans incidents graves,.
 			Regroupement des manifestants aux Platanes.
 			Le comité d'Argeliers prend la tête de la manifestation.
 			À Perpignan, les commerçants aux côtés des viticulteurs.
 			Les manifestants devant le Castillet.
-Dans les départements du Gard, de l'Hérault, de l'Aude et des Pyrénées-Orientales, les conseils municipaux démissionnent collectivement - il y en aura jusqu'à 600 - certains appellent à la grève de l'impôt. La situation devient de plus en plus tendue, les viticulteurs furieux attaquent perceptions, préfectures et sous-préfectures[5]. Le 20 juin, la tension monte encore. À Perpignan, la préfecture est pillée et incendiée. Le préfet David Dautresme doit se réfugier sur le toit[4].
-Débuts de l'appellation
-Jusqu'en 1956, année du nouveau décret de l'INAO, les vignerons élaboraient du muscat de Maury, du muscat de Banyuls, du muscat des côtes d'Agly et du muscat de Rivesaltes.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Muscat-de-rivesaltes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Muscat-de-rivesaltes</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Étymologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forme la plus ancienne est Ribesalta, attestée en 1103. Ce toponyme provient de deux mots latins ripa (rive) et alta (haute)[6].
+Dans les départements du Gard, de l'Hérault, de l'Aude et des Pyrénées-Orientales, les conseils municipaux démissionnent collectivement - il y en aura jusqu'à 600 - certains appellent à la grève de l'impôt. La situation devient de plus en plus tendue, les viticulteurs furieux attaquent perceptions, préfectures et sous-préfectures. Le 20 juin, la tension monte encore. À Perpignan, la préfecture est pillée et incendiée. Le préfet David Dautresme doit se réfugier sur le toit.
 </t>
         </is>
       </c>
@@ -583,15 +599,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Débuts de l'appellation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'en 1956, année du nouveau décret de l'INAO, les vignerons élaboraient du muscat de Maury, du muscat de Banyuls, du muscat des côtes d'Agly et du muscat de Rivesaltes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muscat-de-rivesaltes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscat-de-rivesaltes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forme la plus ancienne est Ribesalta, attestée en 1103. Ce toponyme provient de deux mots latins ripa (rive) et alta (haute).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muscat-de-rivesaltes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscat-de-rivesaltes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orographie
-Géologie
-Climatologie
-Le climat est de type méditerranéen de zone 10. Les hivers y sont doux (quatre jours de gelées par an), les étés sont souvent chauds et secs. La tramontane (Tramuntana) souffle fréquemment (un jour sur quatre, moins depuis quelques années) et amène une certaine fraîcheur en période estivale. La température moyenne annuelle est de 15,9 °C. La température des mois les plus chauds atteint plus de 30 °C.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le climat est de type méditerranéen de zone 10. Les hivers y sont doux (quatre jours de gelées par an), les étés sont souvent chauds et secs. La tramontane (Tramuntana) souffle fréquemment (un jour sur quatre, moins depuis quelques années) et amène une certaine fraîcheur en période estivale. La température moyenne annuelle est de 15,9 °C. La température des mois les plus chauds atteint plus de 30 °C.
 Le Roussillon est l'une des régions les plus chaudes de France. Les précipitations annuelles atteignent 572 mm, soit l'une des moyennes les plus faibles. Il y a près de 300 jours de soleil par an, en partie en raison du vent.
 Température record la plus froide : −11,0 °C (10 février 1956)
 Température record la plus chaude : 40,5 °C (7 juillet 1982)
@@ -601,76 +690,214 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Muscat-de-rivesaltes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Muscat-de-rivesaltes</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscat-de-rivesaltes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscat-de-rivesaltes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Présentation
-Le vignoble s'étend sur les 89 communes suivantes des Pyrénées-Orientales : Argelès-sur-Mer, Bages, Baho, Baixas, Banyuls-dels-Aspres, Banyuls-sur-Mer, Bélesta, Le Boulou, Brouilla, Cabestany, Caixas, Calce, Camélas, Canet-en-Roussillon, Canohès, Cases-de-Pène, Cassagnes, Castelnou, Cerbère, Céret, Claira, Les Cluses, Collioure, Corbère, Corbère-les-Cabanes, Corneilla-la-Rivière, Corneilla-del-Vercol, Elne, Espira-de-l'Agly, Estagel, Fourques, Ille-sur-Têt, Laroque-des-Albères, Latour-Bas-Elne, Latour-de-France, Lesquerde, Llauro, Llupia, Maureillas-las-Illas, Maury, Millas, Montauriol, Montescot, Montesquieu-des-Albères, Montner, Néfiach, Opoul-Périllos, Ortaffa, Palau-del-Vidre, Passa, Perpignan, Peyrestortes, Pézilla-la-Rivière, Pia, Planèzes, Pollestres, Ponteilla, Port-Vendres, Rasiguères, Reynès, Rivesaltes, Saint-André, Saint-Estève, Saint-Feliu-d'Amont, Saint-Féliu-d'Avall, Saint-Génis-des-Fontaines, Saint-Hippolyte, Saint-Jean-Lasseille, Saint-Jean-Pla-de-Corts, Saint-Nazaire, Saint-Paul-de-Fenouillet, Sainte-Colombe-de-la-Commanderie, Saleilles, Salses-le-Château, Le Soler, Sorède, Tautavel, Terrats, Thuir, Tordères, Toulouges, Tresserre, Trouillas, Villelongue-dels-Monts, Villemolaque, Villeneuve-de-la-Raho, Villeneuve-la-Rivière, Vingrau et Vivès. Ce muscat peut donc être aussi produit sur les terroirs de Maury et Banyuls[9]
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur les 89 communes suivantes des Pyrénées-Orientales : Argelès-sur-Mer, Bages, Baho, Baixas, Banyuls-dels-Aspres, Banyuls-sur-Mer, Bélesta, Le Boulou, Brouilla, Cabestany, Caixas, Calce, Camélas, Canet-en-Roussillon, Canohès, Cases-de-Pène, Cassagnes, Castelnou, Cerbère, Céret, Claira, Les Cluses, Collioure, Corbère, Corbère-les-Cabanes, Corneilla-la-Rivière, Corneilla-del-Vercol, Elne, Espira-de-l'Agly, Estagel, Fourques, Ille-sur-Têt, Laroque-des-Albères, Latour-Bas-Elne, Latour-de-France, Lesquerde, Llauro, Llupia, Maureillas-las-Illas, Maury, Millas, Montauriol, Montescot, Montesquieu-des-Albères, Montner, Néfiach, Opoul-Périllos, Ortaffa, Palau-del-Vidre, Passa, Perpignan, Peyrestortes, Pézilla-la-Rivière, Pia, Planèzes, Pollestres, Ponteilla, Port-Vendres, Rasiguères, Reynès, Rivesaltes, Saint-André, Saint-Estève, Saint-Feliu-d'Amont, Saint-Féliu-d'Avall, Saint-Génis-des-Fontaines, Saint-Hippolyte, Saint-Jean-Lasseille, Saint-Jean-Pla-de-Corts, Saint-Nazaire, Saint-Paul-de-Fenouillet, Sainte-Colombe-de-la-Commanderie, Saleilles, Salses-le-Château, Le Soler, Sorède, Tautavel, Terrats, Thuir, Tordères, Toulouges, Tresserre, Trouillas, Villelongue-dels-Monts, Villemolaque, Villeneuve-de-la-Raho, Villeneuve-la-Rivière, Vingrau et Vivès. Ce muscat peut donc être aussi produit sur les terroirs de Maury et Banyuls
 Et sur 9 communes de l'Aude : Cascastel-des-Corbières, Caves, Fitou, Leucate, La Palme, Paziols, Treilles, Tuchan et Villeneuve-les-Corbières. C'est pour ce département la même zone de production que le Fitou (AOC)
 Il existe une « aire de proximité immédiate », sur laquelle l'ensemble des étapes de la réalisation du Muscat sont autorisées, exception faite de la récolte des raisins. Cette zone s'étend sur 25 communes des Pyrénées-Orientales et 7 communes de l'Aude.
-Encépagement
-Pour l'élaboration de ce vin doux naturel deux cépages muscat sont admis : le muscat blanc à petits grains B et le muscat d'Alexandrie B.
-Méthodes culturales
-Vinification et élevage
-Terroir et vins
-Structure des exploitations
-Type de vins et gastronomie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Muscat-de-rivesaltes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscat-de-rivesaltes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour l'élaboration de ce vin doux naturel deux cépages muscat sont admis : le muscat blanc à petits grains B et le muscat d'Alexandrie B.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Muscat-de-rivesaltes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscat-de-rivesaltes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vinification et élevage</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Muscat-de-rivesaltes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscat-de-rivesaltes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Terroir et vins</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Muscat-de-rivesaltes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscat-de-rivesaltes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Type de vins et gastronomie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Poisson à la sauce au vin muscat
 			Le Vitréais, gâteau breton, accompagné d'un muscat de Rivesaltes
 			Pintade à la sauce au vin muscat
-Le muscat de Rivesaltes se sert traditionnellement frais entre 6 et 7 °C. Ces vins doux naturels peuvent accompagner les terrines de foie gras ou les entremets. Le muscat peut aussi servir à déglacer à la cuisson légumes, viandes et poissons. Il entre aussi dans la confection de cocktails[10]. La sauce au vin muscat est l'une des nombreuses déclinaisons culinaires de ce vin doux naturel. Ses arômes muscaté et de raisin frais le font aussi intervenir dans la préparation d'amuse-gueules, potages, entrées, poissons et crustacés, volailles et viandes, légumes et desserts[11].
-Commercialisation</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Muscat-de-rivesaltes</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Muscat-de-rivesaltes</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Le muscat de Rivesaltes se sert traditionnellement frais entre 6 et 7 °C. Ces vins doux naturels peuvent accompagner les terrines de foie gras ou les entremets. Le muscat peut aussi servir à déglacer à la cuisson légumes, viandes et poissons. Il entre aussi dans la confection de cocktails. La sauce au vin muscat est l'une des nombreuses déclinaisons culinaires de ce vin doux naturel. Ses arômes muscaté et de raisin frais le font aussi intervenir dans la préparation d'amuse-gueules, potages, entrées, poissons et crustacés, volailles et viandes, légumes et desserts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Muscat-de-rivesaltes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscat-de-rivesaltes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -679,31 +906,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Muscat-de-rivesaltes</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Muscat-de-rivesaltes</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Muscat-de-rivesaltes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscat-de-rivesaltes</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
